--- a/My.Excel. Worksheet.xlsx
+++ b/My.Excel. Worksheet.xlsx
@@ -112,6 +112,53 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="3048000" y="952500"/>
+          <a:ext cx="13011150" cy="7315200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1828800" y="8763000"/>
           <a:ext cx="13011150" cy="7315200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -419,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
